--- a/shf21/docs/Coa_SHAO.xlsx
+++ b/shf21/docs/Coa_SHAO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB2314E-C808-E04A-9F6F-5829DD120744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48331D1D-D533-4B4B-9A19-F3A4A6958E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11860" yWindow="680" windowWidth="28460" windowHeight="26680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="1395" windowWidth="15900" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSF COA Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="138">
   <si>
     <t>G:</t>
   </si>
@@ -37,30 +37,18 @@
     <t>C:</t>
   </si>
   <si>
-    <t>E:</t>
-  </si>
-  <si>
     <t>Your Name:</t>
   </si>
   <si>
     <t>Advisor/Advisee Name:</t>
   </si>
   <si>
-    <t>R:</t>
-  </si>
-  <si>
     <t>A:</t>
   </si>
   <si>
     <t>Name:</t>
   </si>
   <si>
-    <t>B:</t>
-  </si>
-  <si>
-    <t>Your Organizational Affiliation(s), last 12 mo</t>
-  </si>
-  <si>
     <t>Journal/Collection</t>
   </si>
   <si>
@@ -77,6 +65,239 @@
   </si>
   <si>
     <t>List names as Last Name, First Name, Middle Initial.  Additionally, provide email, organization, and department (optional) to disambiguate common names.</t>
+  </si>
+  <si>
+    <t>Last Active Date</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> List names as last name, first name, middle initial, for whom a personal, family, or business relationship would otherwise preclude their service as a reviewer.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+You may fill-down (crtl-D) to mark a sequence of collaborators, or copy affiliations.  Excel has arrows that enable sorting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For "Last Active Date" and "Last Active" columns dates are optional, but will help NSF staff easily determine which information remains relevant for reviewer selection. 
+“Last Active Date” and “Last Active” columns may be left blank for ongoing or current affiliations. </t>
+  </si>
+  <si>
+    <t>Type of Relationship</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> List the individual’s last name, first name, middle initial, and organizational affiliation in the last 12 months.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The following information regarding collaborators and other affiliations (COA) must be separately provided for each individual identified as senior project personnel. The COA information must be provided through use of this COA template.  
+Please complete this template (e.g., Excel, Google Sheets, LibreOffice), save as .xlsx or .xls, and upload directly as a Research.gov or FastLane Collaborators and Other Affiliations single-copy document. Do not upload .pdf. Grants.gov Users: The COA information must be provided through use of the COA template and uploaded as a PDF attachment.
+Please note that some information requested in prior versions of the PAPPG is no longer requested. THIS IS PURPOSEFUL AND WE NO LONGER REQUIRE THIS INFORMATION TO BE REPORTED. Certain relationships will be reported in other sections (i.e., the names of postdoctoral scholar sponsors should not be reported, however if the individual collaborated on research with their postdoctoral scholar sponsor, then they would be reported as a collaborator). The information in the tables is not required to be sorted, alphabetically or otherwise. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are five separate categories of information which correspond to the five tables in the COA template:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COA template Table 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+List the individual’s last name, first name, middle initial, and organizational affiliation in the last 12 months. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COA template Table 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+List names as last name, first name, middle initial, for whom a personal, family, or business relationship would otherwise preclude their service as a reviewer.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COA template Table 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+List names as last name, first name, middle initial, and provide organizational affiliations, if known, for the following: 
+• The individual’s Ph.D. advisors; and
+• All of the individual’s Ph.D. thesis advisees.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COA template Table 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+List names as last name, first name, middle initial, and provide organizational affiliations, if known, for the following:
+• Co-authors on any book, article, report, abstract or paper with collaboration in the last 48 months (publication date may be later); and
+• Collaborators on projects, such as funded grants, graduate research or others in the last 48 months. 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COA template Table 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+List editorial board, editor-in chief and co-editors with whom the individual interacts.  An editor-in-chief must list the entire editorial board.
+ • Editorial Board: List name(s) of editor-in-chief and journal in the past 24 months; and
+• Other co-Editors of journal or collections with whom the individual has directly interacted in the last 24 months.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The template has been developed to be fillable, however, the content and format requirements must not be altered by the user. This template must be saved in .xlsx or .xls format, and directly uploaded into Research.gov or FastLane as a Collaborators and Other Affiliations single-copy document. Using the .xlsx or .xls format will enable preservation of searchable text that otherwise would be lost. It is therefore imperative that this document be uploaded in .xlsx or .xls only. Uploading a document in any format other than .xlsx or .xls may delay the timely processing and review of the proposal.
+This information is used to manage reviewer selection. See Exhibit II-2 for additional information on potential reviewer conflicts.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Note that graduate advisors are no longer required to be reported.
+ 2. Editorial Board does not include Editorial Advisory Board, International Advisory Board, Scientific Editorial Board, or any other subcategory of Editorial Board. It is limited to those individuals who perform editing duties or manage the editing process (i.e., editor in chief).</t>
   </si>
   <si>
     <r>
@@ -92,7 +313,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>n</t>
+      <t xml:space="preserve">n </t>
     </r>
     <r>
       <rPr>
@@ -103,7 +324,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> blank rows, select </t>
+      <t xml:space="preserve">blank rows, select </t>
     </r>
     <r>
       <rPr>
@@ -130,48 +351,11 @@
     </r>
   </si>
   <si>
-    <t>Last Active Date</t>
-  </si>
-  <si>
-    <t>Additional names for whom some relationship would otherwise preclude their service as a reviewer.</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>COA template Table 3:
-List names as last name, first name, middle initial, and provide organizational affiliations, if known, for the following: 
-• The individual’s Ph.D. advisors; and
-• All of the individual’s Ph.D. thesis advisees.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COA template Table 4:
-List names as last name, first name, middle initial, and provide organizational affiliations, if known, for the following:
-• Co-authors on any book, article, report, abstract or paper with collaboration in the last 48 months (publication date may be later); and
-• Collaborators on projects, such as funded grants, graduate research or others in the last 48 months. 
-</t>
-  </si>
-  <si>
-    <t>COA template Table 5:
-List editorial board, editor-in chief and co-editors with whom the individual interacts.  An editor-in-chief must list the entire editorial board.
- • Editorial Board:   List name(s) of editor-in-chief and journal in the past 24 months; and
-• Other co-Editors of journal or collections with whom the individual has directly interacted in the last 24 months.</t>
-  </si>
-  <si>
-    <t>COA template Table 2:
-List names as last name, first name, middle initial, for whom a personal, family, or business relationship would otherwise preclude their service as a reviewer.</t>
+    <t>Your Organizational Affiliation(s), last 
+12 mo</t>
+  </si>
+  <si>
+    <t>R: Additional names for whom some relationship would otherwise preclude their service as a reviewer.</t>
   </si>
   <si>
     <r>
@@ -184,7 +368,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Table 1:</t>
+      <t>Table 4:</t>
     </r>
     <r>
       <rPr>
@@ -195,8 +379,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> List the individual’s last name, first name, middle initial, and organizational affiliation (including considered affiliation) in the last 12 months.</t>
+      <t xml:space="preserve"> List names as last name, first name, middle initial, and provide organizational affiliations, if known, for the following:</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Co-authors on any book, article, report, abstract or paper with collaboration in the last 48 months (publication date may be later); and </t>
+  </si>
+  <si>
+    <t>C: Collaborators on projects, such as funded grants, graduate research or others in the last 48 months.</t>
   </si>
   <si>
     <r>
@@ -209,7 +399,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Table 2:</t>
+      <t>Table 5:</t>
     </r>
     <r>
       <rPr>
@@ -220,8 +410,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> List names as last name, first name, middle initial, for whom a personal, family, or business relationship would otherwise preclude their service as a reviewer.</t>
+      <t xml:space="preserve"> List editorial board, editor-in chief and co-editors with whom the individual interacts. An editor-in-chief must list the entire editorial board.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Editorial Board:  List name(s) of editor-in-chief and journal in the past 24 months; and </t>
+  </si>
+  <si>
+    <t>E: Other co-Editors of journal or collections with whom the individual has directly interacted in the last 24 months.</t>
   </si>
   <si>
     <r>
@@ -245,84 +441,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> List names as last name, first name, middle initial, and provide organizational affiliations, if known, for the following.</t>
+      <t xml:space="preserve"> List names as last name, first name, middle initial, and provide organizational affiliations, if known, for the following.
+G: The individual’s Ph.D. advisors; and 
+T: All of the individual’s Ph.D. thesis advisees.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">The individual’s Ph.D. advisors; and </t>
-  </si>
-  <si>
-    <t>All of the individual’s Ph.D. thesis advisees.</t>
-  </si>
-  <si>
-    <t>Table 4: List names as last name, first name, middle initial, and provide organizational affiliations, if known, for the following:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co-authors on any book, article, report, abstract or paper with collaboration in the last 48 months (publication date may be later); and </t>
-  </si>
-  <si>
-    <t>Collaborators on projects, such as funded grants, graduate research or others in the last 48 months.</t>
-  </si>
-  <si>
-    <t>Table 5: List editorial board, editor-in chief and co-editors with whom the individual interacts.  An editor-in-chief must list the entire editorial board.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editorial Board:  List name(s) of editor-in-chief and journal in the past 24 months; and </t>
-  </si>
-  <si>
-    <t>Other co-Editors of journal or collections with whom the individual has directly interacted in the last 24 months.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 Note that graduate advisors are no longer required to be reported.
- 2 Editorial Board does not include Editorial Advisory Board, International Advisory Board, Scientific Editorial Board, or any other subcategory of Editorial Board.  It is limited to those individuals who perform editing duties or manage the editing process (i.e., editor in chief).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are five separate categories of information which correspond to the five tables in the COA template:
-COA template Table 1:
-List the individual’s last name, first name, middle initial, and organizational affiliation (including considered affiliation) in the last 12 months. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The template has been developed to be fillable, however, the content and format requirements must not be altered by the user.  This template must be saved in .xlsx or .xls format, and directly uploaded into FastLane as a Collaborators and Other Affiliations Single Copy Document.  Using the .xlsx or .xls format will enable preservation of searchable text that otherwise would be lost.  It is therefore imperative that this document be uploaded in .xlsx or .xls only.  Uploading a document in any format other than .xlsx or .xls may delay the timely processing and review of the proposal.
-This information is used to manage reviewer selection.  See Exhibit II-2 for additional information on potential reviewer conflicts.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-You may fill-down (crtl-D) to mark a sequence of collaborators, or copy affiliations.  Excel has arrows that enable sorting.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For "Last Active Date" and "Last Active" columns dates are optional, but will help NSF staff easily determine which information remains relevant for reviewer selection. 
-“Last Active Date” and “Last Active” columns may be left blank for ongoing or current affiliations. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The following information regarding collaborators and other affiliations (COA) must be separately provided for each individual identified as senior project personnel.  The COA information must be provided through </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">use of this COA template.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Please complete this template (e.g., Excel, Google Sheets, LibreOffice), save as .xlsx or .xls, and upload directly as a Fastlane Collaborators and Other Affiliations single copy doc.  Do not upload .pdf. 
-If there are more than 10 individuals designated as senior project personnel on the proposal, or if there are print preview issues, each completed template must be saved as a .txt file [select the Text (Tab Delimited) option] rather than as an .xlsx or .xls file. This format will still enable preservation of searchable text and avoid delays in processing and review of the proposal.  
-Please note that some information requested in prior versions of the PAPPG is no longer requested.  THIS IS PURPOSEFUL AND WE NO LONGER REQUIRE THIS INFORMATION TO BE REPORTED.   Certain relationships will be reported in other sections (i.e., the names of postdoctoral scholar sponsors should not be reported, however if the individual collaborated on research with their postdoctoral scholar sponsor, then they would be reported as a collaborator). The information in the tables is not required to be sorted, alphabetically or otherwise. </t>
-    </r>
-  </si>
-  <si>
     <t>Shao, Zhong</t>
   </si>
   <si>
@@ -341,6 +465,9 @@
     <t>Saha, Bratin</t>
   </si>
   <si>
+    <t>Amazon</t>
+  </si>
+  <si>
     <t>League, Christopher</t>
   </si>
   <si>
@@ -368,15 +495,21 @@
     <t>Ni, Zhaozhong</t>
   </si>
   <si>
+    <t>CertiK</t>
+  </si>
+  <si>
+    <t>Feng, Xinyu</t>
+  </si>
+  <si>
+    <t>Nanjing University</t>
+  </si>
+  <si>
+    <t>Cai, Hongxu</t>
+  </si>
+  <si>
     <t>Google</t>
   </si>
   <si>
-    <t>Feng, Xinyu</t>
-  </si>
-  <si>
-    <t>Cai, Hongxu</t>
-  </si>
-  <si>
     <t>McCreight, Andrew</t>
   </si>
   <si>
@@ -410,15 +543,24 @@
     <t>Gu, Ronghui</t>
   </si>
   <si>
+    <t>Columbia University</t>
+  </si>
+  <si>
     <t>Costanzo, David</t>
   </si>
   <si>
     <t>Carbonneaux, Quentin</t>
   </si>
   <si>
+    <t>Facebook</t>
+  </si>
+  <si>
     <t>Wu, Newman</t>
   </si>
   <si>
+    <t>Virtu Financial</t>
+  </si>
+  <si>
     <t>Koenig, Jeremie</t>
   </si>
   <si>
@@ -431,12 +573,33 @@
     <t>Lockerman, Joshua</t>
   </si>
   <si>
+    <t>TimescaleDB</t>
+  </si>
+  <si>
     <t>Paul, Lucas</t>
   </si>
   <si>
     <t>Honore, Wolf</t>
   </si>
   <si>
+    <t>Sang, Yuyang</t>
+  </si>
+  <si>
+    <t>Habeeb, Richard</t>
+  </si>
+  <si>
+    <t>Cheng, Tong</t>
+  </si>
+  <si>
+    <t>Oliveira Vale, Arthur</t>
+  </si>
+  <si>
+    <t>Zhang, Yu</t>
+  </si>
+  <si>
+    <t>Chen, Yixuan</t>
+  </si>
+  <si>
     <t>Hoffmann, Jan</t>
   </si>
   <si>
@@ -452,18 +615,30 @@
     <t>Rieg, Lionel</t>
   </si>
   <si>
+    <t>Verimag</t>
+  </si>
+  <si>
     <t>Wang, Yuting</t>
   </si>
   <si>
+    <t>Shanghai Jiaotong University</t>
+  </si>
+  <si>
     <t>Shin, Ji Yong</t>
   </si>
   <si>
+    <t>Northeastern University</t>
+  </si>
+  <si>
     <t>Yoon, Man-Ki</t>
   </si>
   <si>
     <t>Kim, Jung-Eun</t>
   </si>
   <si>
+    <t>Syracuse University</t>
+  </si>
+  <si>
     <t>Antonopoulos, Timos</t>
   </si>
   <si>
@@ -512,48 +687,6 @@
     <t>University of Wisconsin, Madison</t>
   </si>
   <si>
-    <t>Columbia University</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>CertiK</t>
-  </si>
-  <si>
-    <t>Nanjing University</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>Virtu Financial</t>
-  </si>
-  <si>
-    <t>TimescaleDB</t>
-  </si>
-  <si>
-    <t>Sang, Yuyang</t>
-  </si>
-  <si>
-    <t>Habeeb, Richard</t>
-  </si>
-  <si>
-    <t>Cheng, Tong</t>
-  </si>
-  <si>
-    <t>Verimag</t>
-  </si>
-  <si>
-    <t>Chen, Yixuan</t>
-  </si>
-  <si>
-    <t>Zhang, Yu</t>
-  </si>
-  <si>
-    <t>Oliveira Vale, Arthur</t>
-  </si>
-  <si>
     <t>Nieh, Jason</t>
   </si>
   <si>
@@ -563,16 +696,7 @@
     <t>Gollamudi, Anitha</t>
   </si>
   <si>
-    <t>Shanghai Jiaotong University</t>
-  </si>
-  <si>
     <t>Zhang, Ling</t>
-  </si>
-  <si>
-    <t>Northeastern University</t>
-  </si>
-  <si>
-    <t>Syracuse University</t>
   </si>
   <si>
     <t>Mellies, Paul-Andre</t>
@@ -728,6 +852,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -738,21 +871,19 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -765,122 +896,121 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -913,23 +1043,7 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -978,18 +1092,6 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -1017,17 +1119,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -1043,52 +1134,111 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1288,7 +1438,13 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1297,12 +1453,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -1528,7 +1678,13 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1537,12 +1693,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -1748,8 +1898,15 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1984,7 +2141,13 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1993,12 +2156,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -2164,6 +2321,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
       <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
@@ -2184,7 +2347,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="1" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Your Name:" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Your Organizational Affiliation(s), last 12 mo" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Your Organizational Affiliation(s), last _x000a_12 mo" dataDxfId="39"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Last Active Date" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2197,22 +2360,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TableD23" displayName="TableD23" ref="A26:E31" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
-  <autoFilter ref="A26:E31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TableD23" displayName="TableD23" ref="A27:E32" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="A27:E32" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="2" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name:" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Organizational Affiliation" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type of Relationship" dataDxfId="30"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Optional  (email, Department)" dataDxfId="29" dataCellStyle="Hyperlink"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Last Active" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altText="Table D: List editorial board, editor in cheif, and co-editors with whom you interact."/>
+    </ext>
+  </extLst>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableD" displayName="TableD" ref="A75:E106" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A75:E106" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableD" displayName="TableD" ref="A82:E113" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A82:E113" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="4" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name:" dataDxfId="22"/>
@@ -2230,8 +2398,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableD5" displayName="TableD5" ref="A112:E117" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A112:E117" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableD5" displayName="TableD5" ref="A120:E125" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A120:E125" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="5" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name:" dataDxfId="12"/>
@@ -2240,12 +2408,17 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Last Active" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altText="Table D: List editorial board, editor in cheif, and co-editors with whom you interact."/>
+    </ext>
+  </extLst>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="TableC" displayName="TableC" ref="A37:D69" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A37:D69" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="TableC" displayName="TableC" ref="A37:D75" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A37:D75" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="3" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Advisor/Advisee Name:" dataDxfId="2"/>
@@ -2467,337 +2640,319 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R117"/>
+  <dimension ref="A1:R125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" style="1" customWidth="1"/>
     <col min="7" max="17" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="2.19921875" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="2.140625" style="1" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="20" max="16384" width="0" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="195.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-    </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-    </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" ht="67.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+    <row r="1" spans="1:5" ht="195.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" s="9" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:5" s="9" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-    </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-    </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-    </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-    </row>
-    <row r="7" spans="1:5" s="10" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="1:5" s="10" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+    </row>
+    <row r="13" spans="1:5" s="9" customFormat="1" ht="49.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="31"/>
+      <c r="B17" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-    </row>
-    <row r="8" spans="1:5" ht="62.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-    </row>
-    <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-    </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+      <c r="C17" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-    </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
+      <c r="D17" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-    </row>
-    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-    </row>
-    <row r="15" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
-      <c r="B17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>49</v>
-      </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" s="12" customFormat="1" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
+    <row r="23" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
     </row>
     <row r="24" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="56"/>
+      <c r="B24" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+    </row>
+    <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="56"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="14" t="s">
+      <c r="C27" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
     </row>
     <row r="31" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
-    </row>
-    <row r="32" spans="1:5" s="9" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-    </row>
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" spans="1:5" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" s="5" customFormat="1" ht="68.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+    </row>
+    <row r="35" spans="1:5" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D36" s="7" t="s">
         <v>1</v>
@@ -2805,1061 +2960,1080 @@
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="61"/>
+    </row>
+    <row r="40" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="61"/>
+    </row>
+    <row r="41" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="61"/>
+    </row>
+    <row r="42" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="61"/>
+    </row>
+    <row r="43" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="61"/>
+    </row>
+    <row r="44" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="61"/>
+    </row>
+    <row r="45" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="61"/>
+    </row>
+    <row r="46" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="61"/>
+    </row>
+    <row r="47" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="61"/>
+    </row>
+    <row r="48" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="61"/>
+    </row>
+    <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="61"/>
+    </row>
+    <row r="50" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="61"/>
+    </row>
+    <row r="51" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="61"/>
+    </row>
+    <row r="52" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="61"/>
+    </row>
+    <row r="53" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="61"/>
+    </row>
+    <row r="54" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="61"/>
+    </row>
+    <row r="55" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="61"/>
+    </row>
+    <row r="56" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="61"/>
+    </row>
+    <row r="57" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="61"/>
+    </row>
+    <row r="58" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="61"/>
+    </row>
+    <row r="59" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="61"/>
+    </row>
+    <row r="60" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="61"/>
+    </row>
+    <row r="61" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="61"/>
+    </row>
+    <row r="62" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="61"/>
+    </row>
+    <row r="63" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="61"/>
+    </row>
+    <row r="64" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="61"/>
+    </row>
+    <row r="65" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="61"/>
+    </row>
+    <row r="66" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="61"/>
+    </row>
+    <row r="67" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="61"/>
+    </row>
+    <row r="68" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="61"/>
+    </row>
+    <row r="69" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="59"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="61"/>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="14"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="25"/>
+    </row>
+    <row r="71" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="14"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="24"/>
+    </row>
+    <row r="72" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="14"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="24"/>
+    </row>
+    <row r="73" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="14"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="28"/>
+    </row>
+    <row r="74" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="14"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="28"/>
+    </row>
+    <row r="75" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="14"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="28"/>
+    </row>
+    <row r="76" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+    </row>
+    <row r="78" spans="1:5" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="48"/>
+    </row>
+    <row r="80" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="47"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="48"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="32"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="20" t="s">
+      <c r="B83" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="58"/>
+      <c r="E83" s="16">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="23"/>
+      <c r="E84" s="65">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="23"/>
+      <c r="E85" s="65">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" s="23"/>
+      <c r="E86" s="65">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D87" s="18"/>
+      <c r="E87" s="65">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D88" s="23"/>
+      <c r="E88" s="65">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" s="23"/>
+      <c r="E89" s="65">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" s="23"/>
+      <c r="E90" s="65">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D91" s="23"/>
+      <c r="E91" s="65">
+        <v>42985</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92" s="23"/>
+      <c r="E92" s="65">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" s="23"/>
+      <c r="E93" s="65">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D94" s="23"/>
+      <c r="E94" s="65">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" s="23"/>
+      <c r="E95" s="65">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="33"/>
-    </row>
-    <row r="40" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="32"/>
-    </row>
-    <row r="41" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="32"/>
-    </row>
-    <row r="42" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="32"/>
-    </row>
-    <row r="43" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="32"/>
-    </row>
-    <row r="44" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="20" t="s">
+      <c r="C96" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="32"/>
-    </row>
-    <row r="45" spans="1:5" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="50" t="s">
+      <c r="D96" s="23"/>
+      <c r="E96" s="65">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="32"/>
-    </row>
-    <row r="46" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="32"/>
-    </row>
-    <row r="47" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="32"/>
-    </row>
-    <row r="48" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="32"/>
-    </row>
-    <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="32"/>
-    </row>
-    <row r="50" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="32"/>
-    </row>
-    <row r="51" spans="1:4" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="32"/>
-    </row>
-    <row r="52" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="20" t="s">
+      <c r="C97" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D97" s="23"/>
+      <c r="E97" s="65">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D98" s="23"/>
+      <c r="E98" s="65">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D99" s="23"/>
+      <c r="E99" s="65">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D100" s="23"/>
+      <c r="E100" s="65">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D101" s="23"/>
+      <c r="E101" s="65">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D102" s="23"/>
+      <c r="E102" s="65">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C103" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="32"/>
-    </row>
-    <row r="54" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="32"/>
-    </row>
-    <row r="55" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="32"/>
-    </row>
-    <row r="56" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="32"/>
-    </row>
-    <row r="57" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="32"/>
-    </row>
-    <row r="58" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="32"/>
-    </row>
-    <row r="59" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="32"/>
-    </row>
-    <row r="60" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D60" s="32"/>
-    </row>
-    <row r="61" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="32"/>
-    </row>
-    <row r="62" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="32"/>
-    </row>
-    <row r="63" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="32"/>
-    </row>
-    <row r="64" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="36"/>
-    </row>
-    <row r="65" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="36"/>
-    </row>
-    <row r="66" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="49"/>
-    </row>
-    <row r="67" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="49"/>
-    </row>
-    <row r="68" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="49"/>
-    </row>
-    <row r="69" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="36"/>
-    </row>
-    <row r="70" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" s="2" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" s="55"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-    </row>
-    <row r="72" spans="1:5" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
+      <c r="D103" s="61"/>
+      <c r="E103" s="64">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C104" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D104" s="61"/>
+      <c r="E104" s="64">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C105" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D105" s="61"/>
+      <c r="E105" s="64">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C106" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D106" s="61"/>
+      <c r="E106" s="64">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C107" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D107" s="61"/>
+      <c r="E107" s="64">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D108" s="61"/>
+      <c r="E108" s="64">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C109" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D109" s="61"/>
+      <c r="E109" s="64">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C110" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D110" s="18"/>
+      <c r="E110" s="16">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C111" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D111" s="23"/>
+      <c r="E111" s="16">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C112" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D112" s="23"/>
+      <c r="E112" s="65">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="59"/>
+      <c r="B113" s="60"/>
+      <c r="C113" s="60"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="64"/>
+    </row>
+    <row r="114" spans="1:5" s="30" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+    </row>
+    <row r="115" spans="1:5" s="30" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" s="43"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="43"/>
+    </row>
+    <row r="116" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B116" s="44"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="44"/>
+      <c r="E116" s="45"/>
+    </row>
+    <row r="117" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B117" s="44"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="44"/>
+      <c r="E117" s="45"/>
+    </row>
+    <row r="118" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="44"/>
+      <c r="B118" s="44"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="44"/>
+      <c r="E118" s="45"/>
+    </row>
+    <row r="119" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="30"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B75" s="14" t="s">
+      <c r="E120" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D76" s="20"/>
-      <c r="E76" s="21">
-        <v>42917</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="29">
-        <v>43647</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="29">
-        <v>42917</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="29">
-        <v>43647</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D80" s="23"/>
-      <c r="E80" s="29">
-        <v>43647</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="29">
-        <v>43647</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="29">
-        <v>43647</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="29">
-        <v>43647</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="29">
-        <v>42985</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="29">
-        <v>43647</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="29">
-        <v>43282</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="29">
-        <v>43647</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C88" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="29">
-        <v>43647</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="29">
-        <v>43647</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" s="28"/>
-      <c r="E90" s="29">
-        <v>42917</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="29">
-        <v>42917</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D92" s="28"/>
-      <c r="E92" s="29">
-        <v>43647</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="29">
-        <v>43647</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="29">
-        <v>43647</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="29">
-        <v>42917</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D96" s="49"/>
-      <c r="E96" s="51">
-        <v>44287</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D97" s="49"/>
-      <c r="E97" s="51">
-        <v>44287</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D98" s="49"/>
-      <c r="E98" s="51">
-        <v>44378</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D99" s="49"/>
-      <c r="E99" s="51">
-        <v>44378</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D100" s="49"/>
-      <c r="E100" s="51">
-        <v>44378</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D101" s="49"/>
-      <c r="E101" s="51">
-        <v>44378</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D102" s="49"/>
-      <c r="E102" s="51">
-        <v>44013</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D103" s="23"/>
-      <c r="E103" s="21">
-        <v>44013</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D104" s="28"/>
-      <c r="E104" s="21">
-        <v>43647</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D105" s="28"/>
-      <c r="E105" s="29">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="30"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="31"/>
-    </row>
-    <row r="107" spans="1:5" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-    </row>
-    <row r="108" spans="1:5" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B108" s="55"/>
-      <c r="C108" s="55"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="55"/>
-    </row>
-    <row r="109" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B109" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E110" s="3"/>
-    </row>
-    <row r="111" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="38"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="38"/>
-      <c r="D111" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="19"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="21"/>
-    </row>
-    <row r="114" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="22"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="21"/>
-    </row>
-    <row r="115" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="22"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="21"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="22"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="21"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="24"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="27"/>
+    </row>
+    <row r="121" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="14"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="16"/>
+    </row>
+    <row r="122" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="17"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="16"/>
+    </row>
+    <row r="123" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="17"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="16"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="17"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="16"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="19"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="22"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="22">
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A9:E9"/>
-  </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27:A31" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83:A113" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"A:,C:"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A28:A32" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"R:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A32 A38:A62" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A33 A38:A62 A69" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"G:,T:,P:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A113:A117" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A121:A125" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"B:,E:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A63:A69" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A70:A75 A63:A68" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"G:,T:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A76:A106" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>"A:,C:"</formula1>
-    </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="A1:E1" r:id="rId1" display="https://www.nsf.gov/bfa/dias/policy/coa.jsp" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="portrait"/>
+  <pageSetup scale="96" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>

--- a/shf21/docs/Coa_SHAO.xlsx
+++ b/shf21/docs/Coa_SHAO.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48331D1D-D533-4B4B-9A19-F3A4A6958E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2779483-AADB-6146-93C2-3EC4FA7D73C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="1395" windowWidth="15900" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="1400" windowWidth="15960" windowHeight="23200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSF COA Template" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="145">
   <si>
     <t>G:</t>
   </si>
@@ -730,6 +730,27 @@
   </si>
   <si>
     <t>Collins Aerospace</t>
+  </si>
+  <si>
+    <t>Inha University</t>
+  </si>
+  <si>
+    <t>Alibaba Group</t>
+  </si>
+  <si>
+    <t>Qiu, Longfei</t>
+  </si>
+  <si>
+    <t>Luick, Daniel</t>
+  </si>
+  <si>
+    <t>Chaimberg, Benjamin</t>
+  </si>
+  <si>
+    <t>You, Peixin</t>
+  </si>
+  <si>
+    <t>Altamirano, Christian</t>
   </si>
 </sst>
 </file>
@@ -864,11 +885,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1010,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1024,19 +1047,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1046,17 +1057,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1072,11 +1083,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1084,7 +1095,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1092,7 +1103,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1116,22 +1127,19 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1140,27 +1148,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1179,11 +1184,11 @@
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1202,12 +1207,8 @@
       <alignment horizontal="centerContinuous" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -1221,10 +1222,6 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1234,6 +1231,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2642,750 +2643,782 @@
   </sheetPr>
   <dimension ref="A1:R125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.59765625" style="1" customWidth="1"/>
     <col min="7" max="17" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="2.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="2.19921875" style="1" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="20" max="16384" width="0" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="195.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" ht="87.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-    </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="1:5" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+    </row>
+    <row r="6" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:5" s="10" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+    </row>
+    <row r="7" spans="1:5" s="6" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-    </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-    </row>
-    <row r="9" spans="1:5" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+    </row>
+    <row r="9" spans="1:5" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-    </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+    </row>
+    <row r="10" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+    </row>
+    <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-    </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+    </row>
+    <row r="12" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-    </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" ht="49.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-    </row>
-    <row r="15" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-    </row>
-    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="45" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="58" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="11" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
+    <row r="21" spans="1:5" s="7" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="43" t="s">
+    <row r="23" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-    </row>
-    <row r="24" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="44" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="50"/>
+      <c r="B24" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-    </row>
-    <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="50"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-    </row>
-    <row r="31" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-    </row>
-    <row r="32" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-    </row>
-    <row r="33" spans="1:5" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" s="5" customFormat="1" ht="68.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="43" t="s">
+    <row r="34" spans="1:5" ht="68.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
     </row>
     <row r="35" spans="1:5" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="49" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="24"/>
-    </row>
-    <row r="39" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="62" t="s">
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="61"/>
-    </row>
-    <row r="40" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="62" t="s">
+      <c r="D39" s="54"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="61"/>
-    </row>
-    <row r="41" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="62" t="s">
+      <c r="D40" s="54"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="61"/>
-    </row>
-    <row r="42" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="62" t="s">
+      <c r="D41" s="54"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="61"/>
-    </row>
-    <row r="43" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="62" t="s">
+      <c r="D42" s="54"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="61"/>
-    </row>
-    <row r="44" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="62" t="s">
+      <c r="D43" s="54"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="61"/>
-    </row>
-    <row r="45" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="62" t="s">
+      <c r="D44" s="54"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="61"/>
-    </row>
-    <row r="46" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="62" t="s">
+      <c r="D45" s="54"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="61"/>
-    </row>
-    <row r="47" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="62" t="s">
+      <c r="D46" s="54"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="61"/>
-    </row>
-    <row r="48" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="62" t="s">
+      <c r="D47" s="54"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="61"/>
-    </row>
-    <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="62" t="s">
+      <c r="D48" s="54"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="61"/>
-    </row>
-    <row r="50" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="62" t="s">
+      <c r="D49" s="54"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="61"/>
-    </row>
-    <row r="51" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="62" t="s">
+      <c r="D50" s="54"/>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="63" t="s">
+      <c r="C51" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="61"/>
-    </row>
-    <row r="52" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="62" t="s">
+      <c r="D51" s="54"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="61"/>
-    </row>
-    <row r="53" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="62" t="s">
+      <c r="D52" s="54"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="61"/>
-    </row>
-    <row r="54" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="62" t="s">
+      <c r="D53" s="54"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="61"/>
-    </row>
-    <row r="55" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="62" t="s">
+      <c r="D54" s="54"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="61"/>
-    </row>
-    <row r="56" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="62" t="s">
+      <c r="D55" s="54"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="61"/>
-    </row>
-    <row r="57" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="62" t="s">
+      <c r="D56" s="54"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="61"/>
-    </row>
-    <row r="58" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="62" t="s">
+      <c r="D57" s="54"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="C58" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="54"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="54"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="54"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="61"/>
-    </row>
-    <row r="59" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="62" t="s">
+      <c r="D61" s="54"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="58" t="s">
+      <c r="B62" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="54"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="61"/>
-    </row>
-    <row r="60" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="62" t="s">
+      <c r="D63" s="54"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="61"/>
-    </row>
-    <row r="61" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="62" t="s">
+      <c r="B64" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="54"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="58" t="s">
+      <c r="B65" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="61"/>
-    </row>
-    <row r="62" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="62" t="s">
+      <c r="D65" s="54"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62" s="58" t="s">
+      <c r="B66" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="61"/>
-    </row>
-    <row r="63" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="62" t="s">
+      <c r="D66" s="54"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="58" t="s">
+      <c r="B67" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D63" s="61"/>
-    </row>
-    <row r="64" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="62" t="s">
+      <c r="D67" s="54"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="58" t="s">
+      <c r="B68" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="61"/>
-    </row>
-    <row r="65" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="62" t="s">
+      <c r="D68" s="54"/>
+    </row>
+    <row r="69" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="58" t="s">
+      <c r="B69" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="61"/>
-    </row>
-    <row r="66" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="59" t="s">
+      <c r="D69" s="54"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" s="58" t="s">
+      <c r="B70" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D66" s="61"/>
-    </row>
-    <row r="67" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="59" t="s">
+      <c r="D70" s="21"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" s="58" t="s">
+      <c r="B71" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="61"/>
-    </row>
-    <row r="68" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="59" t="s">
+      <c r="D71" s="20"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="58" t="s">
+      <c r="B72" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="61"/>
-    </row>
-    <row r="69" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="59"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="25"/>
-    </row>
-    <row r="71" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="24"/>
-    </row>
-    <row r="72" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="24"/>
-    </row>
-    <row r="73" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="28"/>
-    </row>
-    <row r="74" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="28"/>
-    </row>
-    <row r="75" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="14"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="28"/>
+      <c r="D72" s="20"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="24"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="10"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="24"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="10"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
@@ -3395,623 +3428,623 @@
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="46" t="s">
+      <c r="A77" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B77" s="46"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
     </row>
     <row r="78" spans="1:5" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B78" s="47"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="47" t="s">
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+    </row>
+    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="47"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="48"/>
-    </row>
-    <row r="80" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
-      <c r="B80" s="47"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="48"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="42"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="41"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="42"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="52" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B82" s="53" t="s">
+      <c r="B82" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="53" t="s">
+      <c r="C82" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="53" t="s">
+      <c r="D82" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="54" t="s">
+      <c r="E82" s="48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="17" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="58" t="s">
+      <c r="B83" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D83" s="58"/>
-      <c r="E83" s="16">
+      <c r="D83" s="11"/>
+      <c r="E83" s="12">
         <v>42917</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="62" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="58" t="s">
+      <c r="C84" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D84" s="23"/>
-      <c r="E84" s="65">
+      <c r="D84" s="19"/>
+      <c r="E84" s="57">
         <v>43647</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="62" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="58" t="s">
+      <c r="B85" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C85" s="58" t="s">
+      <c r="C85" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D85" s="23"/>
-      <c r="E85" s="65">
+      <c r="D85" s="19"/>
+      <c r="E85" s="57">
         <v>42917</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="62" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="58" t="s">
+      <c r="B86" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C86" s="58" t="s">
+      <c r="C86" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D86" s="23"/>
-      <c r="E86" s="65">
+      <c r="D86" s="19"/>
+      <c r="E86" s="57">
         <v>43647</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C87" s="58" t="s">
+      <c r="C87" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D87" s="18"/>
-      <c r="E87" s="65">
+      <c r="D87" s="14"/>
+      <c r="E87" s="57">
         <v>43647</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="62" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="58" t="s">
+      <c r="B88" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C88" s="58" t="s">
+      <c r="C88" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D88" s="23"/>
-      <c r="E88" s="65">
+      <c r="D88" s="19"/>
+      <c r="E88" s="57">
         <v>43647</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="62" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="58" t="s">
+      <c r="B89" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D89" s="23"/>
-      <c r="E89" s="65">
+      <c r="D89" s="19"/>
+      <c r="E89" s="57">
         <v>43647</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="62" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="58" t="s">
+      <c r="B90" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C90" s="58" t="s">
+      <c r="C90" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D90" s="23"/>
-      <c r="E90" s="65">
+      <c r="D90" s="19"/>
+      <c r="E90" s="57">
         <v>43647</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="62" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="58" t="s">
+      <c r="B91" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C91" s="58" t="s">
+      <c r="C91" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D91" s="23"/>
-      <c r="E91" s="65">
+      <c r="D91" s="19"/>
+      <c r="E91" s="57">
         <v>42985</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="62" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="58" t="s">
+      <c r="B92" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C92" s="58" t="s">
+      <c r="C92" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D92" s="23"/>
-      <c r="E92" s="65">
+      <c r="D92" s="19"/>
+      <c r="E92" s="57">
         <v>43647</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="62" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="58" t="s">
+      <c r="B93" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C93" s="58" t="s">
+      <c r="C93" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="65">
+      <c r="D93" s="19"/>
+      <c r="E93" s="57">
         <v>43282</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="62" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="58" t="s">
+      <c r="B94" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C94" s="58" t="s">
+      <c r="C94" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D94" s="23"/>
-      <c r="E94" s="65">
+      <c r="D94" s="19"/>
+      <c r="E94" s="57">
         <v>43647</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="62" t="s">
+    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="58" t="s">
+      <c r="B95" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C95" s="63" t="s">
+      <c r="C95" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D95" s="23"/>
-      <c r="E95" s="65">
+      <c r="D95" s="19"/>
+      <c r="E95" s="57">
         <v>43647</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="62" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="58" t="s">
+      <c r="B96" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C96" s="58" t="s">
+      <c r="C96" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D96" s="23"/>
-      <c r="E96" s="65">
+      <c r="D96" s="19"/>
+      <c r="E96" s="57">
         <v>43647</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="62" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="58" t="s">
+      <c r="B97" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C97" s="58" t="s">
+      <c r="C97" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D97" s="23"/>
-      <c r="E97" s="65">
+      <c r="D97" s="19"/>
+      <c r="E97" s="57">
         <v>42917</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="62" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="58" t="s">
+      <c r="B98" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C98" s="58" t="s">
+      <c r="C98" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D98" s="23"/>
-      <c r="E98" s="65">
+      <c r="D98" s="19"/>
+      <c r="E98" s="57">
         <v>42917</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="62" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="58" t="s">
+      <c r="B99" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C99" s="58" t="s">
+      <c r="C99" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D99" s="23"/>
-      <c r="E99" s="65">
+      <c r="D99" s="19"/>
+      <c r="E99" s="57">
         <v>43647</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="62" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B100" s="58" t="s">
+      <c r="B100" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C100" s="58" t="s">
+      <c r="C100" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D100" s="23"/>
-      <c r="E100" s="65">
+      <c r="D100" s="19"/>
+      <c r="E100" s="57">
         <v>43647</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="62" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C101" s="58" t="s">
+      <c r="C101" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D101" s="23"/>
-      <c r="E101" s="65">
+      <c r="D101" s="19"/>
+      <c r="E101" s="57">
         <v>43647</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="62" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="58" t="s">
+      <c r="B102" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C102" s="58" t="s">
+      <c r="C102" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D102" s="23"/>
-      <c r="E102" s="65">
+      <c r="D102" s="19"/>
+      <c r="E102" s="57">
         <v>42917</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="62" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="58" t="s">
+      <c r="B103" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C103" s="58" t="s">
+      <c r="C103" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D103" s="61"/>
-      <c r="E103" s="64">
+      <c r="D103" s="54"/>
+      <c r="E103" s="56">
         <v>44287</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="59" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="58" t="s">
+      <c r="B104" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C104" s="58" t="s">
+      <c r="C104" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D104" s="61"/>
-      <c r="E104" s="64">
+      <c r="D104" s="54"/>
+      <c r="E104" s="56">
         <v>44287</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="62" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B105" s="58" t="s">
+      <c r="B105" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C105" s="58" t="s">
+      <c r="C105" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D105" s="61"/>
-      <c r="E105" s="64">
+      <c r="D105" s="54"/>
+      <c r="E105" s="56">
         <v>44378</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="62" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B106" s="58" t="s">
+      <c r="B106" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C106" s="58" t="s">
+      <c r="C106" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D106" s="61"/>
-      <c r="E106" s="64">
+      <c r="D106" s="54"/>
+      <c r="E106" s="56">
         <v>44378</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="59" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C107" s="58" t="s">
+      <c r="C107" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D107" s="61"/>
-      <c r="E107" s="64">
+      <c r="D107" s="54"/>
+      <c r="E107" s="56">
         <v>44378</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="59" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B108" s="58" t="s">
+      <c r="B108" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C108" s="58" t="s">
+      <c r="C108" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D108" s="61"/>
-      <c r="E108" s="64">
+      <c r="D108" s="54"/>
+      <c r="E108" s="56">
         <v>44378</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="59" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="58" t="s">
+      <c r="B109" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C109" s="58" t="s">
+      <c r="C109" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D109" s="61"/>
-      <c r="E109" s="64">
+      <c r="D109" s="54"/>
+      <c r="E109" s="56">
         <v>44013</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="17" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B110" s="58" t="s">
+      <c r="B110" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C110" s="58" t="s">
+      <c r="C110" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D110" s="18"/>
-      <c r="E110" s="16">
+      <c r="D110" s="14"/>
+      <c r="E110" s="12">
         <v>44013</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="17" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="58" t="s">
+      <c r="B111" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C111" s="58" t="s">
+      <c r="C111" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D111" s="23"/>
-      <c r="E111" s="16">
+      <c r="D111" s="19"/>
+      <c r="E111" s="12">
         <v>43647</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="17" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="58" t="s">
+      <c r="B112" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C112" s="58" t="s">
+      <c r="C112" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D112" s="23"/>
-      <c r="E112" s="65">
+      <c r="D112" s="19"/>
+      <c r="E112" s="57">
         <v>44256</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="59"/>
-      <c r="B113" s="60"/>
-      <c r="C113" s="60"/>
-      <c r="D113" s="61"/>
-      <c r="E113" s="64"/>
-    </row>
-    <row r="114" spans="1:5" s="30" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-    </row>
-    <row r="115" spans="1:5" s="30" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="43" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="52"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="56"/>
+    </row>
+    <row r="114" spans="1:5" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B115" s="43"/>
-      <c r="C115" s="43"/>
-      <c r="D115" s="43"/>
-      <c r="E115" s="43"/>
-    </row>
-    <row r="116" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="44" t="s">
+      <c r="B115" s="37"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="37"/>
+    </row>
+    <row r="116" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B116" s="44"/>
-      <c r="C116" s="44"/>
-      <c r="D116" s="44"/>
-      <c r="E116" s="45"/>
-    </row>
-    <row r="117" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="44" t="s">
+      <c r="B116" s="38"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="39"/>
+    </row>
+    <row r="117" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B117" s="44"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="44"/>
-      <c r="E117" s="45"/>
-    </row>
-    <row r="118" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="44"/>
-      <c r="B118" s="44"/>
-      <c r="C118" s="44"/>
-      <c r="D118" s="44"/>
-      <c r="E118" s="45"/>
-    </row>
-    <row r="119" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="30"/>
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="7" t="s">
+      <c r="B117" s="38"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="38"/>
+      <c r="E117" s="39"/>
+    </row>
+    <row r="118" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="38"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="38"/>
+      <c r="E118" s="39"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="52" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B120" s="53" t="s">
+      <c r="B120" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C120" s="53" t="s">
+      <c r="C120" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D120" s="53" t="s">
+      <c r="D120" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="54" t="s">
+      <c r="E120" s="48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="14"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="16"/>
-    </row>
-    <row r="122" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="17"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="16"/>
-    </row>
-    <row r="123" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="17"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="16"/>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="10"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="12"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="13"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="12"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="13"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="12"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="17"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="16"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="12"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="19"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="22"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="18"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
